--- a/code/export_files/TemplatesExcel/Template_DPGF_v0.1.xlsx
+++ b/code/export_files/TemplatesExcel/Template_DPGF_v0.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisrob/Documents/ETIC/Etude_BRP/code/export_files/TemplatesExcel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF840F-FF7B-4345-B80B-34E6EA7A31ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="17310" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Garde" sheetId="6" r:id="rId1"/>
@@ -16,7 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Garde!$A$1:$D$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Lot_01!$A$2:$Q$123</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -743,12 +756,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0\ _€"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ _€"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1526,7 +1539,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1720,10 +1733,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1780,94 +1793,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1885,10 +1898,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1903,7 +1916,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1939,7 +1952,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1948,14 +1961,101 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1963,9 +2063,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1975,83 +2072,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2068,83 +2153,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2156,6 +2169,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2178,7 +2194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 5"/>
+        <xdr:cNvPr id="2" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2246,7 +2268,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2" descr="\\Grenelle1\daf.srv\BUREAU DES MARCHES\nouveau logo\LOGOS HAROPA + LOCAUX\HAROPA local Paris\Haropa local Bleu Paris.jpg"/>
+        <xdr:cNvPr id="3" name="Image 2" descr="\\Grenelle1\daf.srv\BUREAU DES MARCHES\nouveau logo\LOGOS HAROPA + LOCAUX\HAROPA local Paris\Haropa local Bleu Paris.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2326,7 +2354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2359,9 +2387,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2394,6 +2439,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2569,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2579,202 +2641,202 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="16.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="11.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="147" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="148"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="74"/>
       <c r="B8" s="74"/>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="144"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="173"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="74"/>
       <c r="B9" s="74"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="74"/>
       <c r="B10" s="74"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="74"/>
       <c r="B11" s="74"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="74"/>
       <c r="B12" s="74"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="74"/>
       <c r="B13" s="74"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="150" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-    </row>
-    <row r="15" spans="1:4" s="76" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151" t="s">
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+    </row>
+    <row r="15" spans="1:4" s="76" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A15" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="146"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="152" t="s">
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+    </row>
+    <row r="17" spans="1:4" ht="25">
+      <c r="A17" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="153"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="173" t="s">
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1">
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
-      <c r="D19" s="164" t="s">
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="156" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="155"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="165"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="155"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="165"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="165"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="155" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="157"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="147"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="157"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="159"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="157"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="147" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="156"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="80"/>
-      <c r="D23" s="165"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="158" t="s">
+      <c r="D23" s="157"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="159"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="80"/>
-      <c r="D24" s="165"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="170" t="s">
+      <c r="D24" s="157"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="165"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="170" t="s">
+      <c r="B25" s="163"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="157"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="165"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="163"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="157"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" thickBot="1">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="166"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="158"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" thickBot="1">
+      <c r="A28" s="146"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +2846,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="81">
         <v>43921</v>
       </c>
@@ -2798,7 +2860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="81">
         <v>43944</v>
       </c>
@@ -2810,7 +2872,7 @@
       </c>
       <c r="D31" s="79"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="81">
         <v>43976</v>
       </c>
@@ -2822,60 +2884,71 @@
       </c>
       <c r="D32" s="79"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="7"/>
       <c r="B33" s="75"/>
       <c r="C33" s="8"/>
       <c r="D33" s="79"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="7"/>
       <c r="B34" s="83"/>
       <c r="C34" s="8"/>
       <c r="D34" s="79"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="7"/>
       <c r="B35" s="82"/>
       <c r="C35" s="8"/>
       <c r="D35" s="79"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="7"/>
       <c r="B36" s="75"/>
       <c r="C36" s="8"/>
       <c r="D36" s="79"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="77"/>
       <c r="B37" s="73"/>
       <c r="C37" s="78"/>
       <c r="D37" s="79"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="147" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="149"/>
       <c r="D38" s="79"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="158" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="150" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="160"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="79"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="161"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="163"/>
+    <row r="40" spans="1:4" ht="16" thickBot="1">
+      <c r="A40" s="153"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
       <c r="D40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C8:D12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
@@ -2889,17 +2962,6 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C8:D12"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2909,46 +2971,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="130" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="114" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" style="130" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="114" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="65" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="68.7109375" style="134" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="68.6640625" style="134" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="17" customWidth="1"/>
-    <col min="12" max="12" width="2.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="17" customWidth="1"/>
-    <col min="18" max="19" width="11.42578125" style="17"/>
-    <col min="20" max="20" width="10.42578125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="17" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="17" customWidth="1"/>
+    <col min="18" max="19" width="11.5" style="17"/>
+    <col min="20" max="20" width="10.5" style="17" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="17"/>
+    <col min="25" max="25" width="9.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.5" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="130" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="130" customFormat="1" ht="17" thickBot="1">
       <c r="B1" s="137" t="s">
         <v>184</v>
       </c>
@@ -2963,7 +3025,7 @@
       </c>
       <c r="I1" s="134"/>
     </row>
-    <row r="2" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
@@ -2986,23 +3048,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="30" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="30" customFormat="1" ht="21" thickTop="1">
       <c r="A3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="186"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
       <c r="I3" s="139" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -3011,7 +3073,7 @@
       <c r="F4" s="96"/>
       <c r="G4" s="86"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
@@ -3023,11 +3085,11 @@
       <c r="E5" s="106"/>
       <c r="F5" s="97"/>
       <c r="G5" s="87"/>
-      <c r="I5" s="206" t="s">
+      <c r="I5" s="145" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="28" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="28" customFormat="1" ht="128">
       <c r="A6" s="31" t="s">
         <v>30</v>
       </c>
@@ -3050,7 +3112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="62" customFormat="1" ht="16">
       <c r="A7" s="31" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3133,7 @@
       </c>
       <c r="I7" s="134"/>
     </row>
-    <row r="8" spans="1:9" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="84" customFormat="1" ht="16">
       <c r="A8" s="31" t="s">
         <v>34</v>
       </c>
@@ -3092,7 +3154,7 @@
       </c>
       <c r="I8" s="134"/>
     </row>
-    <row r="9" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="62" customFormat="1" ht="16">
       <c r="A9" s="31" t="s">
         <v>120</v>
       </c>
@@ -3106,11 +3168,11 @@
       <c r="G9" s="87"/>
       <c r="I9" s="134"/>
     </row>
-    <row r="10" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="62" customFormat="1" ht="16">
       <c r="A10" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="144" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="116"/>
@@ -3125,15 +3187,15 @@
         <f t="shared" ref="G10:G11" si="0">F10*E10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="204" t="s">
+      <c r="I10" s="178" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="62" customFormat="1" ht="16">
       <c r="A11" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="144" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="116"/>
@@ -3148,9 +3210,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="204"/>
-    </row>
-    <row r="12" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="178"/>
+    </row>
+    <row r="12" spans="1:9" s="28" customFormat="1">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -3160,15 +3222,15 @@
       <c r="G12" s="87"/>
       <c r="I12" s="134"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="187" t="s">
+    <row r="13" spans="1:9" ht="16">
+      <c r="A13" s="194" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
       <c r="G13" s="88">
         <f>SUM(G6:G12)</f>
         <v>0</v>
@@ -3177,7 +3239,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="53" customFormat="1">
       <c r="A14" s="22"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3187,7 +3249,7 @@
       <c r="G14" s="87"/>
       <c r="I14" s="134"/>
     </row>
-    <row r="15" spans="1:9" s="53" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="53" customFormat="1" ht="17">
       <c r="A15" s="33" t="s">
         <v>35</v>
       </c>
@@ -3201,7 +3263,7 @@
       <c r="G15" s="87"/>
       <c r="I15" s="134"/>
     </row>
-    <row r="16" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="53" customFormat="1" ht="16">
       <c r="A16" s="35" t="s">
         <v>36</v>
       </c>
@@ -3222,7 +3284,7 @@
       </c>
       <c r="I16" s="134"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="16">
       <c r="A17" s="35" t="s">
         <v>37</v>
       </c>
@@ -3242,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A18" s="35" t="s">
         <v>39</v>
       </c>
@@ -3263,7 +3325,7 @@
       </c>
       <c r="I18" s="140"/>
     </row>
-    <row r="19" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A19" s="67" t="s">
         <v>41</v>
       </c>
@@ -3284,7 +3346,7 @@
       </c>
       <c r="I19" s="141"/>
     </row>
-    <row r="20" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A20" s="67" t="s">
         <v>62</v>
       </c>
@@ -3305,7 +3367,7 @@
       </c>
       <c r="I20" s="140"/>
     </row>
-    <row r="21" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A21" s="67" t="s">
         <v>91</v>
       </c>
@@ -3326,7 +3388,7 @@
       </c>
       <c r="I21" s="140"/>
     </row>
-    <row r="22" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A22" s="67" t="s">
         <v>166</v>
       </c>
@@ -3347,7 +3409,7 @@
       </c>
       <c r="I22" s="140"/>
     </row>
-    <row r="23" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="39" customFormat="1">
       <c r="A23" s="35"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -3357,15 +3419,15 @@
       <c r="G23" s="87"/>
       <c r="I23" s="134"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="187" t="s">
+    <row r="24" spans="1:17">
+      <c r="A24" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="188"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="188"/>
-      <c r="F24" s="189"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
       <c r="G24" s="88">
         <f>SUM(G16:G23)</f>
         <v>0</v>
@@ -3375,7 +3437,7 @@
       <c r="M24" s="64"/>
       <c r="N24" s="64"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="22"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -3392,7 +3454,7 @@
       <c r="P25" s="66"/>
       <c r="Q25" s="65"/>
     </row>
-    <row r="26" spans="1:17" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="28" customFormat="1" ht="17">
       <c r="A26" s="33" t="s">
         <v>44</v>
       </c>
@@ -3414,7 +3476,7 @@
       <c r="P26" s="66"/>
       <c r="Q26" s="65"/>
     </row>
-    <row r="27" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="63" customFormat="1" ht="16">
       <c r="A27" s="56" t="s">
         <v>42</v>
       </c>
@@ -3440,7 +3502,7 @@
       <c r="M27" s="54"/>
       <c r="N27" s="65"/>
     </row>
-    <row r="28" spans="1:17" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="117" customFormat="1" ht="16">
       <c r="A28" s="56" t="s">
         <v>43</v>
       </c>
@@ -3461,7 +3523,7 @@
       </c>
       <c r="I28" s="134"/>
     </row>
-    <row r="29" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="54" customFormat="1" ht="16">
       <c r="A29" s="56" t="s">
         <v>66</v>
       </c>
@@ -3482,7 +3544,7 @@
       </c>
       <c r="I29" s="134"/>
     </row>
-    <row r="30" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="54" customFormat="1" ht="16">
       <c r="A30" s="56" t="s">
         <v>68</v>
       </c>
@@ -3511,7 +3573,7 @@
       <c r="P30" s="66"/>
       <c r="Q30" s="65"/>
     </row>
-    <row r="31" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="54" customFormat="1" ht="16">
       <c r="A31" s="56" t="s">
         <v>69</v>
       </c>
@@ -3540,7 +3602,7 @@
       <c r="P31" s="66"/>
       <c r="Q31" s="65"/>
     </row>
-    <row r="32" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="84" customFormat="1" ht="16">
       <c r="A32" s="56" t="s">
         <v>70</v>
       </c>
@@ -3566,7 +3628,7 @@
       <c r="P32" s="66"/>
       <c r="Q32" s="65"/>
     </row>
-    <row r="33" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="84" customFormat="1" ht="16">
       <c r="A33" s="56" t="s">
         <v>129</v>
       </c>
@@ -3592,7 +3654,7 @@
       <c r="P33" s="66"/>
       <c r="Q33" s="65"/>
     </row>
-    <row r="34" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A34" s="56" t="s">
         <v>73</v>
       </c>
@@ -3606,7 +3668,7 @@
       <c r="G34" s="89"/>
       <c r="I34" s="140"/>
     </row>
-    <row r="35" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A35" s="56"/>
       <c r="B35" s="115" t="s">
         <v>107</v>
@@ -3625,7 +3687,7 @@
       </c>
       <c r="I35" s="140"/>
     </row>
-    <row r="36" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A36" s="56" t="s">
         <v>130</v>
       </c>
@@ -3639,7 +3701,7 @@
       <c r="G36" s="89"/>
       <c r="I36" s="140"/>
     </row>
-    <row r="37" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="42" customFormat="1" ht="16">
       <c r="A37" s="56"/>
       <c r="B37" s="115" t="s">
         <v>177</v>
@@ -3658,7 +3720,7 @@
       </c>
       <c r="I37" s="140"/>
     </row>
-    <row r="38" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="49" customFormat="1" ht="16">
       <c r="A38" s="56" t="s">
         <v>131</v>
       </c>
@@ -3679,7 +3741,7 @@
       </c>
       <c r="I38" s="134"/>
     </row>
-    <row r="39" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="44" customFormat="1">
       <c r="A39" s="67"/>
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
@@ -3697,15 +3759,15 @@
       <c r="P39" s="66"/>
       <c r="Q39" s="65"/>
     </row>
-    <row r="40" spans="1:17" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="187" t="s">
+    <row r="40" spans="1:17" s="119" customFormat="1">
+      <c r="A40" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="189"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="195"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="195"/>
+      <c r="F40" s="196"/>
       <c r="G40" s="88">
         <f>SUM(G25:G39)</f>
         <v>0</v>
@@ -3717,7 +3779,7 @@
       <c r="P40" s="121"/>
       <c r="Q40" s="120"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="58"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3734,7 +3796,7 @@
       <c r="P41" s="64"/>
       <c r="Q41" s="64"/>
     </row>
-    <row r="42" spans="1:17" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="28" customFormat="1" ht="17">
       <c r="A42" s="33" t="s">
         <v>45</v>
       </c>
@@ -3756,7 +3818,7 @@
       <c r="P42" s="64"/>
       <c r="Q42" s="64"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="16">
       <c r="A43" s="56" t="s">
         <v>74</v>
       </c>
@@ -3784,7 +3846,7 @@
       <c r="P43" s="64"/>
       <c r="Q43" s="64"/>
     </row>
-    <row r="44" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="63" customFormat="1" ht="16">
       <c r="A44" s="56" t="s">
         <v>75</v>
       </c>
@@ -3813,7 +3875,7 @@
       <c r="P44" s="66"/>
       <c r="Q44" s="65"/>
     </row>
-    <row r="45" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="84" customFormat="1" ht="16">
       <c r="A45" s="56" t="s">
         <v>76</v>
       </c>
@@ -3839,7 +3901,7 @@
       <c r="P45" s="66"/>
       <c r="Q45" s="65"/>
     </row>
-    <row r="46" spans="1:17" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="63" customFormat="1" ht="18">
       <c r="A46" s="56" t="s">
         <v>136</v>
       </c>
@@ -3868,7 +3930,7 @@
       <c r="P46" s="66"/>
       <c r="Q46" s="65"/>
     </row>
-    <row r="47" spans="1:17" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="63" customFormat="1" ht="18">
       <c r="A47" s="56" t="s">
         <v>77</v>
       </c>
@@ -3897,7 +3959,7 @@
       <c r="P47" s="66"/>
       <c r="Q47" s="65"/>
     </row>
-    <row r="48" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="63" customFormat="1" ht="16">
       <c r="A48" s="56" t="s">
         <v>137</v>
       </c>
@@ -3926,7 +3988,7 @@
       <c r="P48" s="66"/>
       <c r="Q48" s="65"/>
     </row>
-    <row r="49" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="54" customFormat="1" ht="16">
       <c r="A49" s="56" t="s">
         <v>138</v>
       </c>
@@ -3947,7 +4009,7 @@
       </c>
       <c r="I49" s="134"/>
     </row>
-    <row r="50" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="54" customFormat="1" ht="16">
       <c r="A50" s="56" t="s">
         <v>139</v>
       </c>
@@ -3968,7 +4030,7 @@
       </c>
       <c r="I50" s="134"/>
     </row>
-    <row r="51" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="42" customFormat="1" ht="16">
       <c r="A51" s="56" t="s">
         <v>140</v>
       </c>
@@ -3989,7 +4051,7 @@
       </c>
       <c r="I51" s="140"/>
     </row>
-    <row r="52" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="42" customFormat="1" ht="16">
       <c r="A52" s="56" t="s">
         <v>141</v>
       </c>
@@ -4010,7 +4072,7 @@
       </c>
       <c r="I52" s="140"/>
     </row>
-    <row r="53" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="63" customFormat="1" ht="16">
       <c r="A53" s="56" t="s">
         <v>78</v>
       </c>
@@ -4031,7 +4093,7 @@
       </c>
       <c r="I53" s="134"/>
     </row>
-    <row r="54" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="54" customFormat="1" ht="16">
       <c r="A54" s="56" t="s">
         <v>142</v>
       </c>
@@ -4052,7 +4114,7 @@
       </c>
       <c r="I54" s="134"/>
     </row>
-    <row r="55" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="54" customFormat="1" ht="16">
       <c r="A55" s="56" t="s">
         <v>168</v>
       </c>
@@ -4073,7 +4135,7 @@
       </c>
       <c r="I55" s="134"/>
     </row>
-    <row r="56" spans="1:9" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="128" customFormat="1" ht="16">
       <c r="A56" s="56" t="s">
         <v>175</v>
       </c>
@@ -4094,7 +4156,7 @@
       </c>
       <c r="I56" s="134"/>
     </row>
-    <row r="57" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="42" customFormat="1" ht="16">
       <c r="A57" s="56" t="s">
         <v>192</v>
       </c>
@@ -4108,7 +4170,7 @@
       <c r="G57" s="89"/>
       <c r="I57" s="140"/>
     </row>
-    <row r="58" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="42" customFormat="1" ht="16">
       <c r="A58" s="56"/>
       <c r="B58" s="115" t="s">
         <v>179</v>
@@ -4127,7 +4189,7 @@
       </c>
       <c r="I58" s="140"/>
     </row>
-    <row r="59" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="42" customFormat="1" ht="16">
       <c r="A59" s="56"/>
       <c r="B59" s="115" t="s">
         <v>178</v>
@@ -4146,7 +4208,7 @@
       </c>
       <c r="I59" s="140"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="58"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
@@ -4155,22 +4217,22 @@
       <c r="F60" s="100"/>
       <c r="G60" s="89"/>
     </row>
-    <row r="61" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="187" t="s">
+    <row r="61" spans="1:9" s="119" customFormat="1">
+      <c r="A61" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="188"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="189"/>
+      <c r="B61" s="195"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="196"/>
       <c r="G61" s="88">
         <f>SUM(G41:G60)</f>
         <v>0</v>
       </c>
       <c r="I61" s="142"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="58"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
@@ -4179,7 +4241,7 @@
       <c r="F62" s="99"/>
       <c r="G62" s="89"/>
     </row>
-    <row r="63" spans="1:9" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="28" customFormat="1" ht="17">
       <c r="A63" s="68" t="s">
         <v>47</v>
       </c>
@@ -4193,7 +4255,7 @@
       <c r="G63" s="89"/>
       <c r="I63" s="134"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="16">
       <c r="A64" s="67" t="s">
         <v>48</v>
       </c>
@@ -4213,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="16">
       <c r="A65" s="67" t="s">
         <v>135</v>
       </c>
@@ -4233,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" s="42" customFormat="1" ht="16">
       <c r="A66" s="67" t="s">
         <v>49</v>
       </c>
@@ -4254,7 +4316,7 @@
       </c>
       <c r="I66" s="140"/>
     </row>
-    <row r="67" spans="1:28" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" s="42" customFormat="1" ht="16">
       <c r="A67" s="67" t="s">
         <v>61</v>
       </c>
@@ -4275,7 +4337,7 @@
       </c>
       <c r="I67" s="140"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28">
       <c r="A68" s="59"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
@@ -4284,22 +4346,22 @@
       <c r="F68" s="100"/>
       <c r="G68" s="89"/>
     </row>
-    <row r="69" spans="1:28" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="187" t="s">
+    <row r="69" spans="1:28" s="119" customFormat="1">
+      <c r="A69" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="B69" s="188"/>
-      <c r="C69" s="188"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="189"/>
+      <c r="B69" s="195"/>
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195"/>
+      <c r="F69" s="196"/>
       <c r="G69" s="88">
         <f>SUM(G62:G68)</f>
         <v>0</v>
       </c>
       <c r="I69" s="142"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28">
       <c r="A70" s="58"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
@@ -4308,7 +4370,7 @@
       <c r="F70" s="99"/>
       <c r="G70" s="89"/>
     </row>
-    <row r="71" spans="1:28" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" s="28" customFormat="1" ht="17">
       <c r="A71" s="68" t="s">
         <v>50</v>
       </c>
@@ -4322,7 +4384,7 @@
       <c r="G71" s="89"/>
       <c r="I71" s="134"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="16">
       <c r="A72" s="67" t="s">
         <v>64</v>
       </c>
@@ -4339,7 +4401,7 @@
       <c r="F72" s="99"/>
       <c r="G72" s="89"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28">
       <c r="A73" s="59"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
@@ -4348,22 +4410,22 @@
       <c r="F73" s="100"/>
       <c r="G73" s="89"/>
     </row>
-    <row r="74" spans="1:28" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="187" t="s">
+    <row r="74" spans="1:28" s="119" customFormat="1">
+      <c r="A74" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="188"/>
-      <c r="C74" s="188"/>
-      <c r="D74" s="188"/>
-      <c r="E74" s="188"/>
-      <c r="F74" s="189"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="195"/>
+      <c r="E74" s="195"/>
+      <c r="F74" s="196"/>
       <c r="G74" s="88">
         <f>SUM(G70:G73)</f>
         <v>0</v>
       </c>
       <c r="I74" s="142"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28">
       <c r="A75" s="58"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
@@ -4372,7 +4434,7 @@
       <c r="F75" s="99"/>
       <c r="G75" s="89"/>
     </row>
-    <row r="76" spans="1:28" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" s="41" customFormat="1" ht="17">
       <c r="A76" s="68" t="s">
         <v>53</v>
       </c>
@@ -4386,7 +4448,7 @@
       <c r="G76" s="89"/>
       <c r="I76" s="134"/>
     </row>
-    <row r="77" spans="1:28" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" s="52" customFormat="1" ht="16">
       <c r="A77" s="67" t="s">
         <v>54</v>
       </c>
@@ -4424,7 +4486,7 @@
       <c r="AA77" s="64"/>
       <c r="AB77" s="64"/>
     </row>
-    <row r="78" spans="1:28" s="54" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" s="54" customFormat="1" ht="18">
       <c r="A78" s="67" t="s">
         <v>79</v>
       </c>
@@ -4462,7 +4524,7 @@
       <c r="AA78" s="66"/>
       <c r="AB78" s="65"/>
     </row>
-    <row r="79" spans="1:28" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" s="54" customFormat="1" ht="16">
       <c r="A79" s="67" t="s">
         <v>80</v>
       </c>
@@ -4500,7 +4562,7 @@
       <c r="AA79" s="66"/>
       <c r="AB79" s="65"/>
     </row>
-    <row r="80" spans="1:28" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" s="54" customFormat="1" ht="16">
       <c r="A80" s="67" t="s">
         <v>81</v>
       </c>
@@ -4538,7 +4600,7 @@
       <c r="AA80" s="64"/>
       <c r="AB80" s="64"/>
     </row>
-    <row r="81" spans="1:28" s="117" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" s="117" customFormat="1" ht="16">
       <c r="A81" s="67" t="s">
         <v>82</v>
       </c>
@@ -4569,7 +4631,7 @@
       <c r="AA81" s="66"/>
       <c r="AB81" s="65"/>
     </row>
-    <row r="82" spans="1:28" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" s="54" customFormat="1" ht="16">
       <c r="A82" s="67" t="s">
         <v>134</v>
       </c>
@@ -4607,7 +4669,7 @@
       <c r="AA82" s="66"/>
       <c r="AB82" s="65"/>
     </row>
-    <row r="83" spans="1:28" s="127" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" s="127" customFormat="1" ht="15.5" customHeight="1">
       <c r="A83" s="67" t="s">
         <v>169</v>
       </c>
@@ -4628,7 +4690,7 @@
       </c>
       <c r="I83" s="134"/>
     </row>
-    <row r="84" spans="1:28" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" s="41" customFormat="1">
       <c r="A84" s="58"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
@@ -4654,15 +4716,15 @@
       <c r="AA84" s="64"/>
       <c r="AB84" s="64"/>
     </row>
-    <row r="85" spans="1:28" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="187" t="s">
+    <row r="85" spans="1:28" s="119" customFormat="1">
+      <c r="A85" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="188"/>
-      <c r="C85" s="188"/>
-      <c r="D85" s="188"/>
-      <c r="E85" s="188"/>
-      <c r="F85" s="189"/>
+      <c r="B85" s="195"/>
+      <c r="C85" s="195"/>
+      <c r="D85" s="195"/>
+      <c r="E85" s="195"/>
+      <c r="F85" s="196"/>
       <c r="G85" s="88">
         <f>SUM(G75:G84)</f>
         <v>0</v>
@@ -4679,7 +4741,7 @@
       <c r="AA85" s="121"/>
       <c r="AB85" s="120"/>
     </row>
-    <row r="86" spans="1:28" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" s="122" customFormat="1">
       <c r="A86" s="58"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
@@ -4689,7 +4751,7 @@
       <c r="G86" s="89"/>
       <c r="I86" s="134"/>
     </row>
-    <row r="87" spans="1:28" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" s="122" customFormat="1" ht="17">
       <c r="A87" s="68" t="s">
         <v>132</v>
       </c>
@@ -4703,7 +4765,7 @@
       <c r="G87" s="89"/>
       <c r="I87" s="134"/>
     </row>
-    <row r="88" spans="1:28" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" s="122" customFormat="1" ht="16">
       <c r="A88" s="67" t="s">
         <v>133</v>
       </c>
@@ -4724,7 +4786,7 @@
       </c>
       <c r="I88" s="134"/>
     </row>
-    <row r="89" spans="1:28" s="122" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" s="122" customFormat="1">
       <c r="A89" s="59"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
@@ -4734,22 +4796,22 @@
       <c r="G89" s="89"/>
       <c r="I89" s="134"/>
     </row>
-    <row r="90" spans="1:28" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="187" t="s">
+    <row r="90" spans="1:28" s="119" customFormat="1">
+      <c r="A90" s="194" t="s">
         <v>150</v>
       </c>
-      <c r="B90" s="188"/>
-      <c r="C90" s="188"/>
-      <c r="D90" s="188"/>
-      <c r="E90" s="188"/>
-      <c r="F90" s="189"/>
+      <c r="B90" s="195"/>
+      <c r="C90" s="195"/>
+      <c r="D90" s="195"/>
+      <c r="E90" s="195"/>
+      <c r="F90" s="196"/>
       <c r="G90" s="88">
         <f>SUM(G86:G89)</f>
         <v>0</v>
       </c>
       <c r="I90" s="142"/>
     </row>
-    <row r="91" spans="1:28" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" s="63" customFormat="1">
       <c r="A91" s="58"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
@@ -4759,7 +4821,7 @@
       <c r="G91" s="89"/>
       <c r="I91" s="134"/>
     </row>
-    <row r="92" spans="1:28" s="63" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" s="63" customFormat="1" ht="17">
       <c r="A92" s="68" t="s">
         <v>151</v>
       </c>
@@ -4773,7 +4835,7 @@
       <c r="G92" s="89"/>
       <c r="I92" s="134"/>
     </row>
-    <row r="93" spans="1:28" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" s="63" customFormat="1" ht="16">
       <c r="A93" s="67" t="s">
         <v>152</v>
       </c>
@@ -4794,7 +4856,7 @@
       </c>
       <c r="I93" s="134"/>
     </row>
-    <row r="94" spans="1:28" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" s="63" customFormat="1" ht="16">
       <c r="A94" s="67" t="s">
         <v>153</v>
       </c>
@@ -4815,7 +4877,7 @@
       </c>
       <c r="I94" s="134"/>
     </row>
-    <row r="95" spans="1:28" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" s="118" customFormat="1" ht="16">
       <c r="A95" s="67" t="s">
         <v>154</v>
       </c>
@@ -4836,7 +4898,7 @@
       </c>
       <c r="I95" s="134"/>
     </row>
-    <row r="96" spans="1:28" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" s="123" customFormat="1" ht="16">
       <c r="A96" s="67" t="s">
         <v>155</v>
       </c>
@@ -4867,7 +4929,7 @@
       <c r="AA96" s="66"/>
       <c r="AB96" s="65"/>
     </row>
-    <row r="97" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="63" customFormat="1">
       <c r="A97" s="59"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
@@ -4877,37 +4939,37 @@
       <c r="G97" s="89"/>
       <c r="I97" s="134"/>
     </row>
-    <row r="98" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="187" t="s">
+    <row r="98" spans="1:9" s="119" customFormat="1">
+      <c r="A98" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="188"/>
-      <c r="C98" s="188"/>
-      <c r="D98" s="188"/>
-      <c r="E98" s="188"/>
-      <c r="F98" s="189"/>
+      <c r="B98" s="195"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="195"/>
+      <c r="F98" s="196"/>
       <c r="G98" s="88">
         <f>SUM(G91:G97)</f>
         <v>0</v>
       </c>
       <c r="I98" s="142"/>
     </row>
-    <row r="99" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="187" t="s">
+    <row r="99" spans="1:9" s="119" customFormat="1">
+      <c r="A99" s="194" t="s">
         <v>165</v>
       </c>
-      <c r="B99" s="188"/>
-      <c r="C99" s="188"/>
-      <c r="D99" s="188"/>
-      <c r="E99" s="188"/>
-      <c r="F99" s="189"/>
+      <c r="B99" s="195"/>
+      <c r="C99" s="195"/>
+      <c r="D99" s="195"/>
+      <c r="E99" s="195"/>
+      <c r="F99" s="196"/>
       <c r="G99" s="88">
         <f>SUM(G5:G98)/2</f>
         <v>0</v>
       </c>
       <c r="I99" s="142"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="70"/>
       <c r="B100" s="71"/>
       <c r="C100" s="71"/>
@@ -4916,7 +4978,7 @@
       <c r="F100" s="102"/>
       <c r="G100" s="90"/>
     </row>
-    <row r="101" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="127" customFormat="1">
       <c r="A101" s="70"/>
       <c r="B101" s="71"/>
       <c r="C101" s="71"/>
@@ -4926,7 +4988,7 @@
       <c r="G101" s="90"/>
       <c r="I101" s="134"/>
     </row>
-    <row r="102" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="127" customFormat="1">
       <c r="A102" s="70"/>
       <c r="B102" s="71"/>
       <c r="C102" s="71"/>
@@ -4936,7 +4998,7 @@
       <c r="G102" s="90"/>
       <c r="I102" s="134"/>
     </row>
-    <row r="103" spans="1:9" s="127" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="127" customFormat="1" ht="16" thickBot="1">
       <c r="A103" s="70"/>
       <c r="B103" s="71"/>
       <c r="C103" s="71"/>
@@ -4946,60 +5008,60 @@
       <c r="G103" s="90"/>
       <c r="I103" s="134"/>
     </row>
-    <row r="104" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="190" t="s">
+    <row r="104" spans="1:9" ht="17" thickBot="1">
+      <c r="A104" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="B104" s="191"/>
-      <c r="C104" s="191"/>
-      <c r="D104" s="191"/>
-      <c r="E104" s="191"/>
-      <c r="F104" s="191"/>
-      <c r="G104" s="192"/>
-    </row>
-    <row r="105" spans="1:9" s="28" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="193" t="s">
+      <c r="B104" s="180"/>
+      <c r="C104" s="180"/>
+      <c r="D104" s="180"/>
+      <c r="E104" s="180"/>
+      <c r="F104" s="180"/>
+      <c r="G104" s="181"/>
+    </row>
+    <row r="105" spans="1:9" s="28" customFormat="1" ht="17" thickBot="1">
+      <c r="A105" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="B105" s="194"/>
-      <c r="C105" s="194"/>
-      <c r="D105" s="194"/>
-      <c r="E105" s="194"/>
-      <c r="F105" s="194"/>
-      <c r="G105" s="195"/>
+      <c r="B105" s="183"/>
+      <c r="C105" s="183"/>
+      <c r="D105" s="183"/>
+      <c r="E105" s="183"/>
+      <c r="F105" s="183"/>
+      <c r="G105" s="184"/>
       <c r="I105" s="134"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="17">
       <c r="A106" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B106" s="201" t="s">
+      <c r="B106" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="202"/>
-      <c r="D106" s="202"/>
-      <c r="E106" s="202"/>
-      <c r="F106" s="203"/>
+      <c r="C106" s="192"/>
+      <c r="D106" s="192"/>
+      <c r="E106" s="192"/>
+      <c r="F106" s="193"/>
       <c r="G106" s="91" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="16">
       <c r="A107" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="196" t="str">
+      <c r="B107" s="185" t="str">
         <f>+B5</f>
         <v xml:space="preserve">INSTALLATION DE CHANTIER </v>
       </c>
-      <c r="C107" s="197"/>
-      <c r="D107" s="197" t="e">
+      <c r="C107" s="186"/>
+      <c r="D107" s="186" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E107" s="197" t="e">
+      <c r="E107" s="186" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F107" s="198" t="e">
+      <c r="F107" s="187" t="e">
         <v>#REF!</v>
       </c>
       <c r="G107" s="92">
@@ -5010,22 +5072,22 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="196" t="str">
+      <c r="B108" s="185" t="str">
         <f>+B15</f>
         <v>TRAVAUX DE DEPOSE ET DE DESAMIANTAGE</v>
       </c>
-      <c r="C108" s="197"/>
-      <c r="D108" s="197" t="e">
+      <c r="C108" s="186"/>
+      <c r="D108" s="186" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E108" s="197" t="e">
+      <c r="E108" s="186" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F108" s="198" t="e">
+      <c r="F108" s="187" t="e">
         <v>#REF!</v>
       </c>
       <c r="G108" s="92">
@@ -5033,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="26" t="s">
         <v>44</v>
       </c>
@@ -5050,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="26" t="s">
         <v>45</v>
       </c>
@@ -5067,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="14.25" customHeight="1">
       <c r="A111" s="26" t="s">
         <v>47</v>
       </c>
@@ -5084,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="26" t="s">
         <v>50</v>
       </c>
@@ -5101,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="26" t="s">
         <v>53</v>
       </c>
@@ -5118,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="123" customFormat="1">
       <c r="A114" s="26" t="s">
         <v>132</v>
       </c>
@@ -5136,7 +5198,7 @@
       </c>
       <c r="I114" s="134"/>
     </row>
-    <row r="115" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="41" customFormat="1">
       <c r="A115" s="26" t="s">
         <v>151</v>
       </c>
@@ -5154,76 +5216,76 @@
       </c>
       <c r="I115" s="134"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="199" t="s">
+    <row r="116" spans="1:9">
+      <c r="A116" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="B116" s="200"/>
+      <c r="B116" s="189"/>
       <c r="C116" s="133"/>
-      <c r="D116" s="181" t="s">
+      <c r="D116" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="E116" s="181"/>
-      <c r="F116" s="181"/>
+      <c r="E116" s="190"/>
+      <c r="F116" s="190"/>
       <c r="G116" s="92">
         <f>SUM(G107:G115)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="179" t="s">
+    <row r="117" spans="1:9">
+      <c r="A117" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="180"/>
+      <c r="B117" s="204"/>
       <c r="C117" s="131"/>
-      <c r="D117" s="181"/>
-      <c r="E117" s="181"/>
-      <c r="F117" s="182"/>
+      <c r="D117" s="190"/>
+      <c r="E117" s="190"/>
+      <c r="F117" s="205"/>
       <c r="G117" s="93"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="179"/>
-      <c r="B118" s="180"/>
+    <row r="118" spans="1:9">
+      <c r="A118" s="203"/>
+      <c r="B118" s="204"/>
       <c r="C118" s="131"/>
-      <c r="D118" s="181" t="s">
+      <c r="D118" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="181"/>
-      <c r="F118" s="181"/>
+      <c r="E118" s="190"/>
+      <c r="F118" s="190"/>
       <c r="G118" s="92">
         <f>G116</f>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="179"/>
-      <c r="B119" s="180"/>
+    <row r="119" spans="1:9">
+      <c r="A119" s="203"/>
+      <c r="B119" s="204"/>
       <c r="C119" s="131"/>
-      <c r="D119" s="181" t="s">
+      <c r="D119" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="E119" s="181"/>
-      <c r="F119" s="181"/>
+      <c r="E119" s="190"/>
+      <c r="F119" s="190"/>
       <c r="G119" s="92">
         <f>G118*0.2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="179"/>
-      <c r="B120" s="180"/>
+    <row r="120" spans="1:9">
+      <c r="A120" s="203"/>
+      <c r="B120" s="204"/>
       <c r="C120" s="131"/>
-      <c r="D120" s="183" t="s">
+      <c r="D120" s="206" t="s">
         <v>23</v>
       </c>
-      <c r="E120" s="183"/>
-      <c r="F120" s="183"/>
+      <c r="E120" s="206"/>
+      <c r="F120" s="206"/>
       <c r="G120" s="126">
         <f>G119+G118</f>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="123" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="123" customFormat="1">
       <c r="A121" s="37"/>
       <c r="B121" s="38"/>
       <c r="C121" s="38"/>
@@ -5233,7 +5295,7 @@
       <c r="G121" s="90"/>
       <c r="I121" s="134"/>
     </row>
-    <row r="122" spans="1:9" s="127" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="127" customFormat="1">
       <c r="A122" s="37"/>
       <c r="B122" s="38"/>
       <c r="C122" s="38"/>
@@ -5243,18 +5305,18 @@
       <c r="G122" s="90"/>
       <c r="I122" s="134"/>
     </row>
-    <row r="123" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="176" t="s">
+    <row r="123" spans="1:9" ht="47.25" customHeight="1" thickBot="1">
+      <c r="A123" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="177"/>
-      <c r="C123" s="177"/>
-      <c r="D123" s="177"/>
-      <c r="E123" s="177"/>
-      <c r="F123" s="177"/>
-      <c r="G123" s="178"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="201"/>
+      <c r="C123" s="201"/>
+      <c r="D123" s="201"/>
+      <c r="E123" s="201"/>
+      <c r="F123" s="201"/>
+      <c r="G123" s="202"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42"/>
@@ -5263,7 +5325,7 @@
       <c r="F124" s="94"/>
       <c r="G124" s="94"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="42"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42"/>
@@ -5272,7 +5334,7 @@
       <c r="F125" s="94"/>
       <c r="G125" s="94"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="42"/>
       <c r="B126" s="42"/>
       <c r="C126" s="42"/>
@@ -5281,7 +5343,7 @@
       <c r="F126" s="94"/>
       <c r="G126" s="94"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="42"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42"/>
@@ -5290,134 +5352,145 @@
       <c r="F127" s="94"/>
       <c r="G127" s="94"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="D128" s="60"/>
       <c r="E128" s="113"/>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:5">
       <c r="D129" s="60"/>
       <c r="E129" s="113"/>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:5">
       <c r="D130" s="60"/>
       <c r="E130" s="113"/>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:5">
       <c r="D131" s="60"/>
       <c r="E131" s="113"/>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:5">
       <c r="D132" s="60"/>
       <c r="E132" s="113"/>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:5">
       <c r="D133" s="60"/>
       <c r="E133" s="113"/>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:5">
       <c r="D134" s="60"/>
       <c r="E134" s="113"/>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:5">
       <c r="D135" s="60"/>
       <c r="E135" s="113"/>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:5">
       <c r="D136" s="60"/>
       <c r="E136" s="113"/>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:5">
       <c r="D137" s="60"/>
       <c r="E137" s="113"/>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:5">
       <c r="D138" s="60"/>
       <c r="E138" s="113"/>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:5">
       <c r="D139" s="60"/>
       <c r="E139" s="113"/>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:5">
       <c r="E140" s="113"/>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:5">
       <c r="E141" s="113"/>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:5">
       <c r="E142" s="113"/>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:5">
       <c r="E143" s="113"/>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:5">
       <c r="E144" s="113"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5">
       <c r="E145" s="113"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5">
       <c r="E146" s="113"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5">
       <c r="E147" s="113"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5">
       <c r="E148" s="113"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5">
       <c r="E149" s="113"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5">
       <c r="E150" s="113"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5">
       <c r="E151" s="113"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5">
       <c r="E152" s="113"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5">
       <c r="E153" s="113"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5">
       <c r="E154" s="113"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5">
       <c r="E155" s="113"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5">
       <c r="E156" s="113"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5">
       <c r="E157" s="113"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5">
       <c r="E158" s="113"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5">
       <c r="E159" s="113"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5">
       <c r="E160" s="113"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5">
       <c r="E161" s="113"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5">
       <c r="E162" s="113"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5">
       <c r="E163" s="113"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5">
       <c r="E164" s="113"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5">
       <c r="E165" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A123:G123"/>
+    <mergeCell ref="A117:B120"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A104:G104"/>
     <mergeCell ref="A105:G105"/>
@@ -5432,17 +5505,6 @@
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="A90:F90"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A117:B120"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.43307086614173229" bottom="0.43307086614173229" header="0.11811023622047245" footer="0.19685039370078741"/>
